--- a/sikuli-automation-framework/target/classes/excel/CRM_Login.xlsx
+++ b/sikuli-automation-framework/target/classes/excel/CRM_Login.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690A635-5AF4-4E10-8CD3-DDCAC2586FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="2760" windowWidth="14670" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>TC1</t>
   </si>
@@ -39,9 +40,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>http://tfpwltst02:30428/Crm/CRM/Crm.jnlp</t>
-  </si>
-  <si>
     <t>NUM_DOC</t>
   </si>
   <si>
@@ -49,14 +47,16 @@
   </si>
   <si>
     <t>10073238825</t>
+  </si>
+  <si>
+    <t>http://tfpwltst07:31328/Crm/CRM/Crm.jnlp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,11 +79,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,29 +98,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +136,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -309,21 +303,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -392,29 +386,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -453,9 +447,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -467,83 +461,86 @@
         <v>45898448</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="4" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="5" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="6" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="9" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="12" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="13" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="14" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="15" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="16" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="17" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="18" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="19" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="20" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="21" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="22" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="23" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="24" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="25" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="26" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="27" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="28" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="29" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="30" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="31" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="32" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="33" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="34" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="35" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="36" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="37" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="38" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="39" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="40" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="41" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="42" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="43" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="44" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="45" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="46" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="47" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="48" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="49" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="50" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="51" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="52" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="53" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="54" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="55" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="56" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="57" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="58" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="59" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="60" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="61" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="62" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="63" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="64" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="65" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="66" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="67" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="68" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="69" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="70" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7D16DE8A-8E79-44EF-8C17-A0446AAD7ACB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>